--- a/gantt_source.xlsx
+++ b/gantt_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\GithubRepos\gantt_chart_quarters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB03AE-D90C-4005-99E7-07C0947FC326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ED915B-6C42-4CE0-9486-753B77D51BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1740" windowWidth="22005" windowHeight="13485" activeTab="1" xr2:uid="{C709A0C3-0A45-4D82-A133-DEC7C378A9F5}"/>
+    <workbookView xWindow="120" yWindow="1740" windowWidth="22005" windowHeight="13485" xr2:uid="{C709A0C3-0A45-4D82-A133-DEC7C378A9F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>Doing some other thing 2</t>
   </si>
   <si>
-    <t>Doing something very important</t>
-  </si>
-  <si>
     <t>Doing something very important 2</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Transfer to something</t>
+  </si>
+  <si>
+    <t>Very important Stuff</t>
   </si>
 </sst>
 </file>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E01E440-957F-4B2F-BF75-DC2906E1F941}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -655,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -672,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -706,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -723,7 +723,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -740,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -757,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -774,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -796,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2A2E3F-667C-45B1-BF36-A257DB436DB0}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -867,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -881,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -895,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -909,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
